--- a/biology/Histoire de la zoologie et de la botanique/Paul_Mabille/Paul_Mabille.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Mabille/Paul_Mabille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Paul Mabille est un naturaliste français, né le 23 septembre 1835 à Saint-Symphorien[1] et mort le 6 avril 1923 dans cette même ville.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Paul Mabille est un naturaliste français, né le 23 septembre 1835 à Saint-Symphorien et mort le 6 avril 1923 dans cette même ville.
 Il participa activement à la Société entomologique de France et s’intéressa principalement aux lépidoptères et à la botanique. Il fut professeur dans un certain nombre de collèges et lycée (Dinan, Auxerre, Bastia, Carcassonne, Tours) avant de se fixer en Île-de-France en 1874.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Paul Mabille, Catalogue des plantes qui croissent autour de Dinan et de Saint-Malo, Bordeaux, impr. Coderc, Degréteau et Poujol, 1866 [2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Mabille, Catalogue des plantes qui croissent autour de Dinan et de Saint-Malo, Bordeaux, impr. Coderc, Degréteau et Poujol, 1866 </t>
         </is>
       </c>
     </row>
